--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>Admin</t>
   </si>
@@ -703,7 +703,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>Data!C2&amp;","&amp;Data!D2</f>
@@ -935,7 +935,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="16" t="s">
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +998,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f>TestCase!D2</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,8 +1090,9 @@
         <f>TestCase!C9</f>
         <v>To check LogIn Without Credentials</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>4</v>
+      <c r="C9" s="14" t="str">
+        <f>TestCase!D9</f>
+        <v>no</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1106,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="B2" s="14" t="str">
         <f>RUNMANAGER!C2</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -1319,7 +1320,7 @@
       </c>
       <c r="B9" s="14" t="str">
         <f>RUNMANAGER!C9</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>9</v>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -145,9 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -207,53 +207,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +245,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -308,22 +302,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -331,7 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,13 +346,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,26 +618,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,13 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,18 +706,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,134 +736,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,9 +908,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1391,7 +1388,7 @@
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1407,55 +1404,55 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" ht="29" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="12" t="str">
         <f>Data!C9&amp;","&amp;Data!D9</f>
         <v>,</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1509,7 +1506,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1522,10 +1519,10 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1541,7 +1538,7 @@
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1557,7 +1554,7 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1581,7 +1578,7 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1594,10 +1591,10 @@
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1610,10 +1607,10 @@
         <f>RUNMANAGER!D9</f>
         <v>yes</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>40</v>
       </c>
     </row>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>TC_ID</t>
   </si>
@@ -107,12 +107,39 @@
     <t>Check Investmenet stratergy and amount is accepting or not</t>
   </si>
   <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>personalisePortfolio</t>
+  </si>
+  <si>
+    <t>Check fot payment option is working fine</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>ckyc</t>
+  </si>
+  <si>
+    <t>Enter KYC details and check wheather its working or not</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>AdharCardNum</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
     <t>kiran.jadhav1993+2@gmail.com</t>
   </si>
   <si>
@@ -138,6 +165,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>BAYPJ2260G</t>
+  </si>
+  <si>
+    <t>12021993</t>
   </si>
 </sst>
 </file>
@@ -145,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -160,6 +193,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -194,44 +234,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,30 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -293,6 +310,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -302,50 +327,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,22 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +681,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,15 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,15 +751,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,166 +769,168 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,12 +954,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1260,199 +1296,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="11" t="str">
         <f>Data!C2&amp;","&amp;Data!D2</f>
         <v>kiran.jadhav1993+2@gmail.com,123</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" ht="29" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="11" t="str">
         <f>Data!C3&amp;","&amp;Data!D3</f>
         <v>12312321,124</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" ht="29" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="11" t="str">
         <f>Data!C4&amp;","&amp;Data!D4</f>
         <v>kiran.jadhav1993+4@gmail' .com,125</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" ht="29" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="11" t="str">
         <f>Data!C5&amp;","&amp;Data!D5</f>
         <v>kiran.jadhav1993+5@gmail.com,3</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="E7" s="14" t="str">
         <f>Data!C7&amp;","&amp;Data!D7</f>
         <v>kiran.jadhav1993+5@gmail.com,123</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="14" t="str">
         <f>Data!C8&amp;","&amp;Data!D8</f>
         <v>,</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" ht="29" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="str">
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="str">
         <f>Data!C9&amp;","&amp;Data!D9</f>
         <v>,</v>
       </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" ht="29" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>Data!C10&amp;","&amp;Data!D10</f>
+        <v>,</v>
+      </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+    <row r="11" ht="29" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
+        <v>,,BAYPJ2260G,12021993</v>
+      </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1466,21 +1524,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="23.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="45.9090909090909" customWidth="1"/>
     <col min="4" max="4" width="25.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="17.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:4">
+    <row r="1" ht="29" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1488,135 +1549,210 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" ht="27" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="str">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="str">
         <f>RUNMANAGER!B2</f>
         <v>logInTest</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="3" t="str">
         <f>RUNMANAGER!D2</f>
         <v>no</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="str">
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="str">
         <f>RUNMANAGER!B3</f>
         <v>verifyEmail01</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="3" t="str">
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="28" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="str">
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="str">
         <f>RUNMANAGER!B4</f>
         <v>verifyEmail02</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3" t="str">
         <f>RUNMANAGER!D4</f>
         <v>no</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="str">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="str">
         <f>RUNMANAGER!B5</f>
         <v>verifyPass01</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
         <f>RUNMANAGER!D5</f>
         <v>no</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="35" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" ht="35" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="str">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="str">
         <f>RUNMANAGER!B7</f>
         <v>doLogin</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f>RUNMANAGER!D7</f>
         <v>yes</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="str">
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="str">
         <f>RUNMANAGER!B8</f>
         <v>riskAssessment</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="str">
+      <c r="C8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="str">
         <f>RUNMANAGER!B9</f>
         <v>investmentHorizon</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
+        <v>no</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="str">
+        <f>RUNMANAGER!B10</f>
+        <v>personalisePortfolio</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>RUNMANAGER!D10</f>
         <v>yes</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>40</v>
+      <c r="C10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="str">
+        <f>RUNMANAGER!B11</f>
+        <v>ckyc</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>RUNMANAGER!D11</f>
+        <v>no</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="123"/>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TC_ID</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>kiran.jadhav1993+4@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -178,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -241,30 +244,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -301,17 +328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,60 +351,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,187 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,17 +654,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,37 +713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,7 +754,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,130 +772,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1416,7 +1419,7 @@
       </c>
       <c r="E7" s="14" t="str">
         <f>Data!C7&amp;","&amp;Data!D7</f>
-        <v>kiran.jadhav1993+5@gmail.com,123</v>
+        <v>kiran.jadhav1993+4@gmail.com,123</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1430,8 +1433,8 @@
       <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="14" t="str">
         <f>Data!C8&amp;","&amp;Data!D8</f>
@@ -1449,8 +1452,8 @@
       <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="14" t="str">
         <f>Data!C9&amp;","&amp;Data!D9</f>
@@ -1468,7 +1471,7 @@
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="14" t="str">
@@ -1487,8 +1490,8 @@
       <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>9</v>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="14" t="str">
         <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
@@ -1526,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1661,7 +1664,7 @@
         <v>yes</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>42</v>
@@ -1677,13 +1680,13 @@
       </c>
       <c r="B8" s="3" t="str">
         <f>RUNMANAGER!D8</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1696,13 +1699,13 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1718,10 +1721,10 @@
         <v>yes</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1734,20 +1737,20 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>RUNMANAGER!D11</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>TC_ID</t>
   </si>
@@ -80,10 +80,10 @@
     <t>TC_05</t>
   </si>
   <si>
-    <t>doLogin</t>
-  </si>
-  <si>
-    <t>Login into the application with correct username and password</t>
+    <t>tc_001</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
   <si>
     <t>yes</t>
@@ -92,37 +92,46 @@
     <t>TC_06</t>
   </si>
   <si>
-    <t>riskAssessment</t>
-  </si>
-  <si>
-    <t>Check wheather the portfolio is getting generated properly or not</t>
+    <t>tc_002</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
   </si>
   <si>
     <t>TC_07</t>
   </si>
   <si>
-    <t>investmentHorizon</t>
-  </si>
-  <si>
-    <t>Check Investmenet stratergy and amount is accepting or not</t>
+    <t>tc_003</t>
+  </si>
+  <si>
+    <t>Investment Horizon</t>
   </si>
   <si>
     <t>TC_08</t>
   </si>
   <si>
-    <t>personalisePortfolio</t>
-  </si>
-  <si>
-    <t>Check fot payment option is working fine</t>
+    <t>tc_004</t>
+  </si>
+  <si>
+    <t>Personalise portfolio</t>
   </si>
   <si>
     <t>TC_09</t>
   </si>
   <si>
-    <t>ckyc</t>
-  </si>
-  <si>
-    <t>Enter KYC details and check wheather its working or not</t>
+    <t>tc_005</t>
+  </si>
+  <si>
+    <t>CKYC</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>tc_006</t>
+  </si>
+  <si>
+    <t>Client Agreement</t>
   </si>
   <si>
     <t>username</t>
@@ -164,7 +173,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+4@gmail.com</t>
+    <t>kiran.jadhav1993+11@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -181,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -250,8 +259,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +297,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,96 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -408,55 +417,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,127 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,41 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -700,6 +674,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +721,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -745,16 +752,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,134 +781,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -949,9 +958,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1285,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1419,7 +1425,7 @@
       </c>
       <c r="E7" s="14" t="str">
         <f>Data!C7&amp;","&amp;Data!D7</f>
-        <v>kiran.jadhav1993+4@gmail.com,123</v>
+        <v>kiran.jadhav1993+11@gmail.com,123</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1442,11 +1448,11 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" ht="29" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -1461,11 +1467,11 @@
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" ht="29" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1480,11 +1486,11 @@
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" ht="29" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1500,20 +1506,28 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1527,9 +1541,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1552,19 +1566,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
@@ -1577,10 +1591,10 @@
         <v>no</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1595,11 +1609,11 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>44</v>
+      <c r="C3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1615,10 +1629,10 @@
         <v>no</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1634,10 +1648,10 @@
         <v>no</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1657,17 +1671,17 @@
     <row r="7" ht="35" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="str">
         <f>RUNMANAGER!B7</f>
-        <v>doLogin</v>
+        <v>tc_001</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>RUNMANAGER!D7</f>
         <v>yes</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1676,17 +1690,17 @@
     <row r="8" ht="28" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="str">
         <f>RUNMANAGER!B8</f>
-        <v>riskAssessment</v>
+        <v>tc_002</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>RUNMANAGER!D8</f>
         <v>yes</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>50</v>
+      <c r="C8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1695,17 +1709,17 @@
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="str">
         <f>RUNMANAGER!B9</f>
-        <v>investmentHorizon</v>
+        <v>tc_003</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
         <v>yes</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>50</v>
+      <c r="C9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1714,17 +1728,17 @@
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="str">
         <f>RUNMANAGER!B10</f>
-        <v>personalisePortfolio</v>
+        <v>tc_004</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>RUNMANAGER!D10</f>
         <v>yes</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>50</v>
+      <c r="C10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1733,25 +1747,44 @@
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="str">
         <f>RUNMANAGER!B11</f>
-        <v>ckyc</v>
+        <v>tc_005</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>RUNMANAGER!D11</f>
         <v>yes</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>50</v>
+      <c r="C11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="str">
+        <f>RUNMANAGER!B12</f>
+        <v>tc_006</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>RUNMANAGER!D12</f>
+        <v>yes</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+11@gmail.com</t>
+    <t>kiran.jadhav1993+12@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -191,9 +191,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -259,6 +259,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -267,21 +297,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -298,54 +353,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +369,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,30 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,181 +423,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,24 +681,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -735,6 +717,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,18 +754,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,127 +784,127 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E7" s="14" t="str">
         <f>Data!C7&amp;","&amp;Data!D7</f>
-        <v>kiran.jadhav1993+11@gmail.com,123</v>
+        <v>kiran.jadhav1993+12@gmail.com,123</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E8" s="14" t="str">
         <f>Data!C8&amp;","&amp;Data!D8</f>
@@ -1543,7 +1543,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B8" s="3" t="str">
         <f>RUNMANAGER!D8</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>53</v>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>TC_ID</t>
   </si>
@@ -86,52 +86,76 @@
     <t>Login</t>
   </si>
   <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>tc_002</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>tc_003</t>
+  </si>
+  <si>
+    <t>Investment Horizon</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>tc_004</t>
+  </si>
+  <si>
+    <t>Personalise portfolio</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>tc_005</t>
+  </si>
+  <si>
+    <t>CKYC</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>tc_006</t>
+  </si>
+  <si>
+    <t>Client Agreement</t>
+  </si>
+  <si>
+    <t>Proetct</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>tc_pro_001</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>tc_002</t>
-  </si>
-  <si>
-    <t>Risk Assessment</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>tc_003</t>
-  </si>
-  <si>
-    <t>Investment Horizon</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>tc_004</t>
-  </si>
-  <si>
-    <t>Personalise portfolio</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>tc_005</t>
-  </si>
-  <si>
-    <t>CKYC</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>tc_006</t>
-  </si>
-  <si>
-    <t>Client Agreement</t>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>tc_pro_002</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>tc_pro_003</t>
+  </si>
+  <si>
+    <t>Sync Your Portfolio</t>
   </si>
   <si>
     <t>username</t>
@@ -173,7 +197,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+12@gmail.com</t>
+    <t>kiran.jadhav1993+13@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -183,6 +207,12 @@
   </si>
   <si>
     <t>12021993</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>kiran.jadhav1993+14@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -190,12 +220,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +276,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -253,6 +290,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -260,9 +304,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,6 +326,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -282,13 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -305,8 +364,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -336,61 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,25 +454,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,145 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +700,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +743,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -698,6 +768,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,62 +797,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,134 +818,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -930,6 +967,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -942,13 +982,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,8 +1000,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1289,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1305,233 +1345,298 @@
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="12" t="str">
         <f>Data!C2&amp;","&amp;Data!D2</f>
         <v>kiran.jadhav1993+2@gmail.com,123</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" ht="29" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="12" t="str">
         <f>Data!C3&amp;","&amp;Data!D3</f>
         <v>12312321,124</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="29" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="12" t="str">
         <f>Data!C4&amp;","&amp;Data!D4</f>
         <v>kiran.jadhav1993+4@gmail' .com,125</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" ht="29" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="12" t="str">
         <f>Data!C5&amp;","&amp;Data!D5</f>
         <v>kiran.jadhav1993+5@gmail.com,3</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f>Data!C7&amp;","&amp;Data!D7</f>
+        <v>kiran.jadhav1993+13@gmail.com,123</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" ht="29" customHeight="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14" t="str">
-        <f>Data!C7&amp;","&amp;Data!D7</f>
-        <v>kiran.jadhav1993+12@gmail.com,123</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="15" t="str">
         <f>Data!C8&amp;","&amp;Data!D8</f>
         <v>,</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14" t="str">
+      <c r="D9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="str">
         <f>Data!C9&amp;","&amp;Data!D9</f>
         <v>,</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="14" t="str">
+      <c r="D10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="str">
         <f>Data!C10&amp;","&amp;Data!D10</f>
         <v>,</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="14" t="str">
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15" t="str">
         <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:6">
+      <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f>Data!C15&amp;","&amp;Data!D15</f>
+        <v>kiran.jadhav1993+14@gmail.com,123</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f>Data!C16&amp;","&amp;Data!D16</f>
+        <v>,</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A13:F14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1541,10 +1646,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1556,6 +1661,7 @@
     <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="17.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="12.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:7">
@@ -1566,19 +1672,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
@@ -1591,10 +1697,10 @@
         <v>no</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1609,11 +1715,11 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>47</v>
+      <c r="C3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1629,10 +1735,10 @@
         <v>no</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1648,10 +1754,10 @@
         <v>no</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1675,13 +1781,13 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>RUNMANAGER!D7</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1696,11 +1802,11 @@
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>53</v>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1713,13 +1819,13 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
-        <v>yes</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>53</v>
+        <v>no</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1732,13 +1838,13 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>RUNMANAGER!D10</f>
-        <v>yes</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>53</v>
+        <v>no</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1751,20 +1857,20 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>RUNMANAGER!D11</f>
-        <v>yes</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>no</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1774,21 +1880,91 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>RUNMANAGER!D12</f>
-        <v>yes</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>53</v>
+        <v>no</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="str">
+        <f>RUNMANAGER!B15</f>
+        <v>tc_pro_001</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>RUNMANAGER!D15</f>
+        <v>yes</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="str">
+        <f>RUNMANAGER!B16</f>
+        <v>tc_pro_002</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>RUNMANAGER!D16</f>
+        <v>yes</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="str">
+        <f>RUNMANAGER!B17</f>
+        <v>tc_pro_003</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>RUNMANAGER!D17</f>
+        <v>yes</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A13:G14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="123"/>
@@ -1797,8 +1973,12 @@
     <hyperlink ref="D5" r:id="rId1" display="3"/>
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId1" display="123"/>
+    <hyperlink ref="D15" r:id="rId1" display="123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="D7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -220,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -290,6 +290,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -297,14 +312,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,46 +409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -374,60 +427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,139 +454,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,43 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,24 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -733,26 +715,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,174 +767,181 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1609,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>Data!C16&amp;","&amp;Data!D16</f>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>RUNMANAGER!D16</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>TC_ID</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Sync Your Portfolio</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>tc_pro_004</t>
   </si>
   <si>
     <t>username</t>
@@ -220,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -290,7 +296,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +357,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,23 +409,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,37 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -386,48 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,18 +460,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,163 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +706,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -732,17 +753,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -768,8 +778,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,30 +798,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,130 +824,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1464,8 +1470,8 @@
         <v>9</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f>Data!C7&amp;","&amp;Data!D7</f>
-        <v>kiran.jadhav1993+13@gmail.com,123</v>
+        <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
+        <v>kiran.jadhav1993+13@gmail.com,123,,</v>
       </c>
       <c r="F7" s="15"/>
     </row>
@@ -1483,8 +1489,8 @@
         <v>9</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f>Data!C8&amp;","&amp;Data!D8</f>
-        <v>,</v>
+        <f>Data!C8&amp;","&amp;Data!D8&amp;","&amp;Data!F8&amp;","&amp;Data!G8</f>
+        <v>,,,</v>
       </c>
       <c r="F8" s="18"/>
     </row>
@@ -1502,8 +1508,8 @@
         <v>9</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f>Data!C9&amp;","&amp;Data!D9</f>
-        <v>,</v>
+        <f>Data!C9&amp;","&amp;Data!D9&amp;","&amp;Data!F9&amp;","&amp;Data!G9</f>
+        <v>,,,</v>
       </c>
       <c r="F9" s="19"/>
     </row>
@@ -1521,8 +1527,8 @@
         <v>9</v>
       </c>
       <c r="E10" s="15" t="str">
-        <f>Data!C10&amp;","&amp;Data!D10</f>
-        <v>,</v>
+        <f>Data!C10&amp;","&amp;Data!D10&amp;","&amp;Data!F10&amp;","&amp;Data!G10</f>
+        <v>,,,</v>
       </c>
       <c r="F10" s="19"/>
     </row>
@@ -1558,7 +1564,10 @@
       <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="15" t="str">
+        <f>Data!C12&amp;","&amp;Data!D12&amp;","&amp;Data!F12&amp;","&amp;Data!G12</f>
+        <v>,,,</v>
+      </c>
       <c r="F12" s="19"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
@@ -1593,8 +1602,8 @@
         <v>41</v>
       </c>
       <c r="E15" s="15" t="str">
-        <f>Data!C15&amp;","&amp;Data!D15</f>
-        <v>kiran.jadhav1993+14@gmail.com,123</v>
+        <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
+        <v>kiran.jadhav1993+14@gmail.com,123,,</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1609,11 +1618,11 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E16" s="15" t="str">
-        <f>Data!C16&amp;","&amp;Data!D16</f>
-        <v>,</v>
+        <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
+        <v>,,,</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1630,8 +1639,30 @@
       <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="15" t="str">
+        <f>Data!C17&amp;","&amp;Data!D17&amp;","&amp;Data!F17&amp;","&amp;Data!G17</f>
+        <v>,,,</v>
+      </c>
       <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f>Data!C18&amp;","&amp;Data!D18&amp;","&amp;Data!F18&amp;","&amp;Data!G18</f>
+        <v>,,BAYPJ2260G,12021993</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1646,10 +1677,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1672,19 +1703,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
@@ -1697,10 +1728,10 @@
         <v>no</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1716,10 +1747,10 @@
         <v>no</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1735,10 +1766,10 @@
         <v>no</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1754,10 +1785,10 @@
         <v>no</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1784,10 +1815,10 @@
         <v>no</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1803,10 +1834,10 @@
         <v>no</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1822,10 +1853,10 @@
         <v>no</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1841,10 +1872,10 @@
         <v>no</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1860,17 +1891,17 @@
         <v>no</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1883,10 +1914,10 @@
         <v>no</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1894,7 +1925,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1922,10 +1953,10 @@
         <v>yes</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1938,7 +1969,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>RUNMANAGER!D16</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1960,6 +1991,25 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="str">
+        <f>RUNMANAGER!B18</f>
+        <v>tc_pro_004</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>RUNMANAGER!D18</f>
+        <v>yes</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -218,7 +218,7 @@
     <t>Protect</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+14@gmail.com</t>
+    <t>kiran.jadhav1993+15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -226,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -296,16 +296,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,24 +402,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,97 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -460,85 +460,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,97 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,16 +707,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,21 +741,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,159 +789,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E15" s="15" t="str">
         <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
-        <v>kiran.jadhav1993+14@gmail.com,123,,</v>
+        <v>kiran.jadhav1993+15@gmail.com,123,,</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>RUNMANAGER!D16</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>Protect</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+15@gmail.com</t>
+    <t>kiran.jadhav1993+19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -296,9 +296,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,7 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,15 +411,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,75 +426,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,28 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -460,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,17 +706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,8 +718,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,15 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,22 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,18 +783,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,127 +827,127 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E15" s="15" t="str">
         <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
-        <v>kiran.jadhav1993+15@gmail.com,123,,</v>
+        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1618,7 +1618,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
@@ -1679,7 +1679,7 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>RUNMANAGER!D16</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>TC_ID</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>TC_06</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
     <t>tc_pro_001</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>TC_12</t>
   </si>
   <si>
@@ -164,6 +164,24 @@
     <t>tc_pro_004</t>
   </si>
   <si>
+    <t>One Stock</t>
+  </si>
+  <si>
+    <t>tc_os_001</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>tc_os_002</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>tc_os_003</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -203,7 +221,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+13@gmail.com</t>
+    <t>kiran.jadhav1993+19@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -216,9 +234,6 @@
   </si>
   <si>
     <t>Protect</t>
-  </si>
-  <si>
-    <t>kiran.jadhav1993+19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -226,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -240,6 +255,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -247,6 +263,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -270,6 +287,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
@@ -282,6 +300,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -295,6 +314,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -304,6 +331,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,22 +353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -341,16 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +375,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -380,60 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,187 +479,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,24 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,6 +740,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -750,6 +769,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,38 +822,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,139 +843,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -974,13 +995,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1009,6 +1033,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1351,257 +1379,257 @@
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="13" t="str">
         <f>Data!C2&amp;","&amp;Data!D2</f>
         <v>kiran.jadhav1993+2@gmail.com,123</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" ht="29" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="E3" s="13" t="str">
         <f>Data!C3&amp;","&amp;Data!D3</f>
         <v>12312321,124</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="29" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="13" t="str">
         <f>Data!C4&amp;","&amp;Data!D4</f>
         <v>kiran.jadhav1993+4@gmail' .com,125</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="29" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="E5" s="13" t="str">
         <f>Data!C5&amp;","&amp;Data!D5</f>
         <v>kiran.jadhav1993+5@gmail.com,3</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" ht="40" customHeight="1" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:6">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
+        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:6">
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15" t="str">
-        <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
-        <v>kiran.jadhav1993+13@gmail.com,123,,</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="16" t="str">
         <f>Data!C8&amp;","&amp;Data!D8&amp;","&amp;Data!F8&amp;","&amp;Data!G8</f>
         <v>,,,</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="str">
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="str">
         <f>Data!C9&amp;","&amp;Data!D9&amp;","&amp;Data!F9&amp;","&amp;Data!G9</f>
         <v>,,,</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="15" t="str">
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="str">
         <f>Data!C10&amp;","&amp;Data!D10&amp;","&amp;Data!F10&amp;","&amp;Data!G10</f>
         <v>,,,</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="15" t="str">
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16" t="str">
         <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="15" t="str">
+      <c r="C12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16" t="str">
         <f>Data!C12&amp;","&amp;Data!D12&amp;","&amp;Data!F12&amp;","&amp;Data!G12</f>
         <v>,,,</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
-      <c r="A13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="E15" s="16" t="str">
         <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
         <v>kiran.jadhav1993+19@gmail.com,123,,</v>
       </c>
@@ -1614,13 +1642,13 @@
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
+      <c r="C16" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="E16" s="16" t="str">
         <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
         <v>,,,</v>
       </c>
@@ -1637,9 +1665,9 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16" t="str">
         <f>Data!C17&amp;","&amp;Data!D17&amp;","&amp;Data!F17&amp;","&amp;Data!G17</f>
         <v>,,,</v>
       </c>
@@ -1653,21 +1681,97 @@
         <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="E18" s="16" t="str">
         <f>Data!C18&amp;","&amp;Data!D18&amp;","&amp;Data!F18&amp;","&amp;Data!G18</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
       <c r="F18" s="5"/>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>Data!C21&amp;","&amp;Data!D21&amp;","&amp;Data!F21&amp;","&amp;Data!G21</f>
+        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>Data!C22&amp;","&amp;Data!D22&amp;","&amp;Data!F22&amp;","&amp;Data!G22</f>
+        <v>,,,</v>
+      </c>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f>Data!C23&amp;","&amp;Data!D23&amp;","&amp;Data!F23&amp;","&amp;Data!G23</f>
+        <v>,,BAYPJ2260G,12021993</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A13:F14"/>
+    <mergeCell ref="A19:F20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1677,10 +1781,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1703,22 +1807,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" ht="27" customHeight="1" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="str">
         <f>RUNMANAGER!B2</f>
         <v>logInTest</v>
@@ -1728,16 +1832,16 @@
         <v>no</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="28" customHeight="1" spans="1:7">
+    <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="str">
         <f>RUNMANAGER!B3</f>
         <v>verifyEmail01</v>
@@ -1746,17 +1850,17 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>57</v>
+      <c r="C3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:7">
+    <row r="4" ht="12" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="str">
         <f>RUNMANAGER!B4</f>
         <v>verifyEmail02</v>
@@ -1766,16 +1870,16 @@
         <v>no</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:7">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="str">
         <f>RUNMANAGER!B5</f>
         <v>verifyPass01</v>
@@ -1785,10 +1889,10 @@
         <v>no</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1805,26 +1909,26 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="35" customHeight="1" spans="1:7">
+    <row r="7" ht="19" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="str">
         <f>RUNMANAGER!B7</f>
         <v>tc_001</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>RUNMANAGER!D7</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" ht="28" customHeight="1" spans="1:7">
+    <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="str">
         <f>RUNMANAGER!B8</f>
         <v>tc_002</v>
@@ -1833,11 +1937,11 @@
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>63</v>
+      <c r="C8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1850,13 +1954,13 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
-        <v>no</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>63</v>
+        <v>yes</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1869,13 +1973,13 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>RUNMANAGER!D10</f>
-        <v>no</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>63</v>
+        <v>yes</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1888,20 +1992,20 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>RUNMANAGER!D11</f>
-        <v>no</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>63</v>
+        <v>yes</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1911,13 +2015,13 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>RUNMANAGER!D12</f>
-        <v>no</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>63</v>
+        <v>yes</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1925,7 +2029,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1950,13 +2054,13 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>RUNMANAGER!D15</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1969,7 +2073,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>RUNMANAGER!D16</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1984,7 +2088,7 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>RUNMANAGER!D17</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1999,22 +2103,118 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>RUNMANAGER!D18</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="str">
+        <f>RUNMANAGER!B21</f>
+        <v>tc_os_001</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>RUNMANAGER!D21</f>
+        <v>yes</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="str">
+        <f>RUNMANAGER!B22</f>
+        <v>tc_os_002</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>RUNMANAGER!D22</f>
+        <v>yes</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="str">
+        <f>RUNMANAGER!B23</f>
+        <v>tc_os_003</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>RUNMANAGER!D23</f>
+        <v>yes</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A13:G14"/>
+    <mergeCell ref="A19:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="123"/>
@@ -2024,6 +2224,7 @@
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId1" display="123"/>
     <hyperlink ref="D15" r:id="rId1" display="123"/>
+    <hyperlink ref="D21" r:id="rId1" display="123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -241,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -294,7 +294,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -308,12 +308,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -322,20 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -360,8 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -422,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,7 +444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -445,13 +452,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -485,181 +485,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +725,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -742,9 +757,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,32 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,10 +813,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,134 +843,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,12 +1006,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,18 +1028,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1365,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1421,7 +1418,7 @@
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1475,67 +1472,67 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="17" t="str">
         <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
         <v>kiran.jadhav1993+19@gmail.com,123,,</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="17" t="str">
         <f>Data!C8&amp;","&amp;Data!D8&amp;","&amp;Data!F8&amp;","&amp;Data!G8</f>
         <v>,,,</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="17" t="str">
         <f>Data!C9&amp;","&amp;Data!D9&amp;","&amp;Data!F9&amp;","&amp;Data!G9</f>
         <v>,,,</v>
       </c>
@@ -1545,16 +1542,16 @@
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="17" t="str">
         <f>Data!C10&amp;","&amp;Data!D10&amp;","&amp;Data!F10&amp;","&amp;Data!G10</f>
         <v>,,,</v>
       </c>
@@ -1564,16 +1561,16 @@
       <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="17" t="str">
         <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
@@ -1583,16 +1580,16 @@
       <c r="A12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="17" t="str">
         <f>Data!C12&amp;","&amp;Data!D12&amp;","&amp;Data!F12&amp;","&amp;Data!G12</f>
         <v>,,,</v>
       </c>
@@ -1617,155 +1614,155 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="17" t="str">
         <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
         <v>kiran.jadhav1993+19@gmail.com,123,,</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="17" t="str">
         <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
         <v>,,,</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="17" t="str">
         <f>Data!C17&amp;","&amp;Data!D17&amp;","&amp;Data!F17&amp;","&amp;Data!G17</f>
         <v>,,,</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="17" t="str">
         <f>Data!C18&amp;","&amp;Data!D18&amp;","&amp;Data!F18&amp;","&amp;Data!G18</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="17" t="str">
         <f>Data!C21&amp;","&amp;Data!D21&amp;","&amp;Data!F21&amp;","&amp;Data!G21</f>
         <v>kiran.jadhav1993+19@gmail.com,123,,</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="17" t="str">
         <f>Data!C22&amp;","&amp;Data!D22&amp;","&amp;Data!F22&amp;","&amp;Data!G22</f>
         <v>,,,</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="17" t="str">
         <f>Data!C23&amp;","&amp;Data!D23&amp;","&amp;Data!F23&amp;","&amp;Data!G23</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1834,7 +1831,7 @@
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="5"/>
@@ -1850,10 +1847,10 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="5"/>
@@ -1872,7 +1869,7 @@
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="5"/>
@@ -1891,7 +1888,7 @@
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="5"/>
@@ -1921,7 +1918,7 @@
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="5"/>
@@ -1937,10 +1934,10 @@
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="5"/>
@@ -1956,10 +1953,10 @@
         <f>RUNMANAGER!D9</f>
         <v>yes</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="5"/>
@@ -1975,10 +1972,10 @@
         <f>RUNMANAGER!D10</f>
         <v>yes</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="5"/>
@@ -1994,17 +1991,17 @@
         <f>RUNMANAGER!D11</f>
         <v>yes</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2017,10 +2014,10 @@
         <f>RUNMANAGER!D12</f>
         <v>yes</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="5"/>
@@ -2059,7 +2056,7 @@
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="5"/>
@@ -2111,7 +2108,7 @@
       <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2147,16 +2144,16 @@
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2169,19 +2166,19 @@
         <f>RUNMANAGER!D22</f>
         <v>yes</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2194,19 +2191,19 @@
         <f>RUNMANAGER!D23</f>
         <v>yes</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="25" t="s">
         <v>71</v>
       </c>
     </row>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>TC_ID</t>
   </si>
@@ -86,63 +86,63 @@
     <t>Login</t>
   </si>
   <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>tc_002</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>tc_003</t>
+  </si>
+  <si>
+    <t>Investment Horizon</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>tc_004</t>
+  </si>
+  <si>
+    <t>Personalise portfolio</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>tc_005</t>
+  </si>
+  <si>
+    <t>CKYC</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>tc_006</t>
+  </si>
+  <si>
+    <t>Client Agreement</t>
+  </si>
+  <si>
+    <t>Proetct</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>tc_pro_001</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>tc_002</t>
-  </si>
-  <si>
-    <t>Risk Assessment</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>tc_003</t>
-  </si>
-  <si>
-    <t>Investment Horizon</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>tc_004</t>
-  </si>
-  <si>
-    <t>Personalise portfolio</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>tc_005</t>
-  </si>
-  <si>
-    <t>CKYC</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>tc_006</t>
-  </si>
-  <si>
-    <t>Client Agreement</t>
-  </si>
-  <si>
-    <t>Proetct</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>tc_pro_001</t>
-  </si>
-  <si>
     <t>TC_12</t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+19@gmail.com</t>
+    <t>kiran.jadhav1993+20@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Protect</t>
+  </si>
+  <si>
+    <t>kiran.jadhav1993+26@gmail.com</t>
+  </si>
+  <si>
+    <t>kiran.jadhav1993+21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -241,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -322,7 +328,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,114 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -479,97 +485,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,85 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +731,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -740,6 +755,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -751,17 +777,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,15 +828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -843,22 +849,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,110 +879,104 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,9 +1018,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,13 +1030,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1418,7 +1421,7 @@
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1472,67 +1475,67 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
+        <v>kiran.jadhav1993+20@gmail.com,123,,</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:6">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17" t="str">
-        <f>Data!C7&amp;","&amp;Data!D7&amp;","&amp;Data!F7&amp;","&amp;Data!G7</f>
-        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="16" t="str">
         <f>Data!C8&amp;","&amp;Data!D8&amp;","&amp;Data!F8&amp;","&amp;Data!G8</f>
         <v>,,,</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="str">
         <f>Data!C9&amp;","&amp;Data!D9&amp;","&amp;Data!F9&amp;","&amp;Data!G9</f>
         <v>,,,</v>
       </c>
@@ -1540,18 +1543,18 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16" t="str">
         <f>Data!C10&amp;","&amp;Data!D10&amp;","&amp;Data!F10&amp;","&amp;Data!G10</f>
         <v>,,,</v>
       </c>
@@ -1559,18 +1562,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16" t="str">
         <f>Data!C11&amp;","&amp;Data!D11&amp;","&amp;Data!F11&amp;","&amp;Data!G11</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
@@ -1578,18 +1581,18 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="17" t="str">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16" t="str">
         <f>Data!C12&amp;","&amp;Data!D12&amp;","&amp;Data!F12&amp;","&amp;Data!G12</f>
         <v>,,,</v>
       </c>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:6">
       <c r="A13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1614,80 +1617,80 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="16" t="str">
+        <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
+        <v>kiran.jadhav1993+26@gmail.com,123,,</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="17" t="str">
-        <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
-        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
-      </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="16" t="str">
         <f>Data!C16&amp;","&amp;Data!D16&amp;","&amp;Data!F16&amp;","&amp;Data!G16</f>
         <v>,,,</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17" t="str">
+      <c r="D17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="16" t="str">
         <f>Data!C17&amp;","&amp;Data!D17&amp;","&amp;Data!F17&amp;","&amp;Data!G17</f>
         <v>,,,</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="17" t="str">
+      <c r="C18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="16" t="str">
         <f>Data!C18&amp;","&amp;Data!D18&amp;","&amp;Data!F18&amp;","&amp;Data!G18</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
@@ -1708,61 +1711,61 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="17" t="str">
+      <c r="D21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16" t="str">
         <f>Data!C21&amp;","&amp;Data!D21&amp;","&amp;Data!F21&amp;","&amp;Data!G21</f>
-        <v>kiran.jadhav1993+19@gmail.com,123,,</v>
-      </c>
-      <c r="F21" s="22"/>
+        <v>kiran.jadhav1993+21@gmail.com,123,,</v>
+      </c>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="17" t="str">
+      <c r="C22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16" t="str">
         <f>Data!C22&amp;","&amp;Data!D22&amp;","&amp;Data!F22&amp;","&amp;Data!G22</f>
         <v>,,,</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="17" t="str">
+      <c r="C23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16" t="str">
         <f>Data!C23&amp;","&amp;Data!D23&amp;","&amp;Data!F23&amp;","&amp;Data!G23</f>
         <v>,,BAYPJ2260G,12021993</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1781,7 +1784,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1831,7 +1834,7 @@
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="5"/>
@@ -1847,10 +1850,10 @@
         <f>RUNMANAGER!D3</f>
         <v>no</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="5"/>
@@ -1869,7 +1872,7 @@
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="5"/>
@@ -1888,7 +1891,7 @@
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="5"/>
@@ -1913,12 +1916,12 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>RUNMANAGER!D7</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="5"/>
@@ -1934,10 +1937,10 @@
         <f>RUNMANAGER!D8</f>
         <v>no</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="5"/>
@@ -1951,12 +1954,12 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>RUNMANAGER!D9</f>
-        <v>yes</v>
-      </c>
-      <c r="C9" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="5"/>
@@ -1970,12 +1973,12 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>RUNMANAGER!D10</f>
-        <v>yes</v>
-      </c>
-      <c r="C10" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="5"/>
@@ -1989,19 +1992,19 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>RUNMANAGER!D11</f>
-        <v>yes</v>
-      </c>
-      <c r="C11" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2012,12 +2015,12 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>RUNMANAGER!D12</f>
-        <v>yes</v>
-      </c>
-      <c r="C12" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="5"/>
@@ -2051,12 +2054,12 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>RUNMANAGER!D15</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="5"/>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>RUNMANAGER!D17</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>RUNMANAGER!D18</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2108,7 +2111,7 @@
       <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2139,21 +2142,21 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>RUNMANAGER!D21</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2164,21 +2167,21 @@
       </c>
       <c r="B22" s="3" t="str">
         <f>RUNMANAGER!D22</f>
-        <v>yes</v>
-      </c>
-      <c r="C22" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2189,21 +2192,21 @@
       </c>
       <c r="B23" s="3" t="str">
         <f>RUNMANAGER!D23</f>
-        <v>yes</v>
-      </c>
-      <c r="C23" s="24" t="s">
+        <v>no</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>71</v>
       </c>
     </row>

--- a/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
+++ b/InterviewTask_TechStalWarts/src/test/resources/excel/DataSheet.xlsx
@@ -140,36 +140,36 @@
     <t>tc_pro_001</t>
   </si>
   <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>tc_pro_002</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>tc_pro_003</t>
+  </si>
+  <si>
+    <t>Sync Your Portfolio</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>tc_pro_004</t>
+  </si>
+  <si>
+    <t>One Stock</t>
+  </si>
+  <si>
+    <t>tc_os_001</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>tc_pro_002</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>tc_pro_003</t>
-  </si>
-  <si>
-    <t>Sync Your Portfolio</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>tc_pro_004</t>
-  </si>
-  <si>
-    <t>One Stock</t>
-  </si>
-  <si>
-    <t>tc_os_001</t>
-  </si>
-  <si>
     <t>TC_15</t>
   </si>
   <si>
@@ -239,7 +239,7 @@
     <t>kiran.jadhav1993+26@gmail.com</t>
   </si>
   <si>
-    <t>kiran.jadhav1993+21@gmail.com</t>
+    <t>kiran.jadhav1993+29@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -247,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -321,6 +321,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -328,14 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +350,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,8 +373,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +396,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -392,14 +415,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,6 +426,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -419,21 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -442,27 +457,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -485,73 +485,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,108 +666,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,9 +733,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,17 +753,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,18 +819,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,127 +852,127 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1627,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E15" s="16" t="str">
         <f>Data!C15&amp;","&amp;Data!D15&amp;","&amp;Data!F15&amp;","&amp;Data!G15</f>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E17" s="16" t="str">
         <f>Data!C17&amp;","&amp;Data!D17&amp;","&amp;Data!F17&amp;","&amp;Data!G17</f>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E18" s="16" t="str">
         <f>Data!C18&amp;","&amp;Data!D18&amp;","&amp;Data!F18&amp;","&amp;Data!G18</f>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1712,20 +1712,20 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>Data!C21&amp;","&amp;Data!D21&amp;","&amp;Data!F21&amp;","&amp;Data!G21</f>
-        <v>kiran.jadhav1993+21@gmail.com,123,,</v>
+        <v>kiran.jadhav1993+29@gmail.com,123,,</v>
       </c>
       <c r="F21" s="19"/>
     </row>
@@ -1759,7 +1759,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E23" s="16" t="str">
         <f>Data!C23&amp;","&amp;Data!D23&amp;","&amp;Data!F23&amp;","&amp;Data!G23</f>
@@ -1783,8 +1783,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>RUNMANAGER!D15</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>73</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>RUNMANAGER!D17</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>RUNMANAGER!D18</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>RUNMANAGER!D21</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>74</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B23" s="3" t="str">
         <f>RUNMANAGER!D23</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>69</v>
